--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS     ZAVALETA   Mayo    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS     ZAVALETA   Mayo    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="61">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -242,6 +242,15 @@
   </si>
   <si>
     <t>NORMA LEDO    ( Central )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABASTOS 11 SUR </t>
+  </si>
+  <si>
+    <t>PRUSUBCA</t>
+  </si>
+  <si>
+    <t>9-May-23--10-May-23--13-May-23--15-May-23</t>
   </si>
 </sst>
 </file>
@@ -4562,7 +4571,7 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
@@ -8386,8 +8395,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9316,11 +9325,15 @@
       <c r="E38" s="21">
         <v>817</v>
       </c>
-      <c r="F38" s="111"/>
-      <c r="G38" s="21"/>
+      <c r="F38" s="111">
+        <v>45056</v>
+      </c>
+      <c r="G38" s="21">
+        <v>817</v>
+      </c>
       <c r="H38" s="19">
         <f t="shared" si="0"/>
-        <v>817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -9397,11 +9410,11 @@
       <c r="F43" s="113"/>
       <c r="G43" s="40">
         <f>SUM(G4:G42)</f>
-        <v>430220</v>
+        <v>431037</v>
       </c>
       <c r="H43" s="41">
         <f>SUM(H23:H42)</f>
-        <v>11825</v>
+        <v>11008</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -9445,7 +9458,7 @@
       <c r="D47" s="39"/>
       <c r="E47" s="182">
         <f>E43-G43</f>
-        <v>11825</v>
+        <v>11008</v>
       </c>
       <c r="F47" s="183"/>
       <c r="G47" s="184"/>
@@ -10564,7 +10577,7 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10651,7 +10664,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="165">
         <v>45052</v>
       </c>
@@ -10665,191 +10678,272 @@
       <c r="E5" s="21">
         <v>31876</v>
       </c>
-      <c r="F5" s="111"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="111" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="21">
+        <f>4500+9000+10800+7576</f>
+        <v>31876</v>
+      </c>
       <c r="H5" s="19">
         <f t="shared" si="0"/>
-        <v>31876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="165"/>
+      <c r="A6" s="165">
+        <v>45054</v>
+      </c>
       <c r="B6" s="15">
         <v>753</v>
       </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="21">
+        <v>4888</v>
+      </c>
       <c r="F6" s="111"/>
       <c r="G6" s="21"/>
       <c r="H6" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4888</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="166"/>
+      <c r="A7" s="166">
+        <v>45054</v>
+      </c>
       <c r="B7" s="15">
         <v>754</v>
       </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="21">
+        <v>3300</v>
+      </c>
       <c r="F7" s="111"/>
       <c r="G7" s="21"/>
       <c r="H7" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="165"/>
+      <c r="A8" s="165">
+        <v>45054</v>
+      </c>
       <c r="B8" s="15">
         <v>755</v>
       </c>
       <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="21"/>
+      <c r="D8" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="21">
+        <v>8386</v>
+      </c>
       <c r="F8" s="111"/>
       <c r="G8" s="21"/>
       <c r="H8" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8386</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="165"/>
+      <c r="A9" s="165">
+        <v>45055</v>
+      </c>
       <c r="B9" s="15">
         <v>756</v>
       </c>
       <c r="C9" s="26"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="21"/>
+      <c r="D9" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="21">
+        <v>490</v>
+      </c>
       <c r="F9" s="111"/>
       <c r="G9" s="21"/>
       <c r="H9" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="165"/>
+      <c r="A10" s="165">
+        <v>45056</v>
+      </c>
       <c r="B10" s="15">
         <v>757</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="21"/>
+      <c r="D10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="21">
+        <v>11672</v>
+      </c>
       <c r="F10" s="111"/>
       <c r="G10" s="21"/>
       <c r="H10" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11672</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="165"/>
+      <c r="A11" s="165">
+        <v>45056</v>
+      </c>
       <c r="B11" s="15">
         <v>758</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="21"/>
+      <c r="D11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1408</v>
+      </c>
       <c r="F11" s="111"/>
       <c r="G11" s="21"/>
       <c r="H11" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="165"/>
+      <c r="A12" s="165">
+        <v>45057</v>
+      </c>
       <c r="B12" s="15">
         <v>759</v>
       </c>
       <c r="C12" s="27"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="21"/>
+      <c r="D12" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="21">
+        <v>4100</v>
+      </c>
       <c r="F12" s="111"/>
       <c r="G12" s="21"/>
       <c r="H12" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="165"/>
+      <c r="A13" s="165">
+        <v>45059</v>
+      </c>
       <c r="B13" s="15">
         <v>760</v>
       </c>
       <c r="C13" s="28"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="21"/>
+      <c r="D13" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="21">
+        <v>13313</v>
+      </c>
       <c r="F13" s="111"/>
       <c r="G13" s="21"/>
       <c r="H13" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13313</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="165"/>
+      <c r="A14" s="165">
+        <v>45059</v>
+      </c>
       <c r="B14" s="15">
         <v>761</v>
       </c>
       <c r="C14" s="29"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="21"/>
+      <c r="D14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="21">
+        <v>5189</v>
+      </c>
       <c r="F14" s="111"/>
       <c r="G14" s="21"/>
       <c r="H14" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="165"/>
+      <c r="A15" s="165">
+        <v>45061</v>
+      </c>
       <c r="B15" s="15">
         <v>762</v>
       </c>
       <c r="C15" s="30"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="21"/>
+      <c r="D15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="21">
+        <v>3300</v>
+      </c>
       <c r="F15" s="111"/>
       <c r="G15" s="21"/>
       <c r="H15" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="165"/>
+      <c r="A16" s="165">
+        <v>45061</v>
+      </c>
       <c r="B16" s="15">
         <v>763</v>
       </c>
       <c r="C16" s="29"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="21"/>
+      <c r="D16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="21">
+        <v>1673</v>
+      </c>
+      <c r="F16" s="111">
+        <v>45061</v>
+      </c>
+      <c r="G16" s="21">
+        <v>1673</v>
+      </c>
       <c r="H16" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="165"/>
+      <c r="A17" s="165">
+        <v>45061</v>
+      </c>
       <c r="B17" s="15">
         <v>764</v>
       </c>
       <c r="C17" s="28"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="21"/>
+      <c r="D17" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="21">
+        <v>4470</v>
+      </c>
       <c r="F17" s="111"/>
       <c r="G17" s="21"/>
       <c r="H17" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -11230,12 +11324,12 @@
       <c r="D43" s="39"/>
       <c r="E43" s="40">
         <f>SUM(E4:E42)</f>
-        <v>40586</v>
+        <v>102775</v>
       </c>
       <c r="F43" s="113"/>
       <c r="G43" s="40">
         <f>SUM(G4:G42)</f>
-        <v>0</v>
+        <v>33549</v>
       </c>
       <c r="H43" s="41">
         <f>SUM(H23:H42)</f>
@@ -11283,7 +11377,7 @@
       <c r="D47" s="39"/>
       <c r="E47" s="182">
         <f>E43-G43</f>
-        <v>40586</v>
+        <v>69226</v>
       </c>
       <c r="F47" s="183"/>
       <c r="G47" s="184"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS     ZAVALETA   Mayo    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS     ZAVALETA   Mayo    2023.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="63">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>9-May-23--10-May-23--13-May-23--15-May-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -1427,11 +1433,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF9966FF"/>
       <color rgb="FF99FF99"/>
       <color rgb="FF3399FF"/>
       <color rgb="FFFF00FF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FFCC6600"/>
@@ -8395,8 +8401,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9304,8 +9310,8 @@
       <c r="E37" s="21">
         <v>10015</v>
       </c>
-      <c r="F37" s="111"/>
-      <c r="G37" s="21"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="122"/>
       <c r="H37" s="19">
         <f t="shared" si="0"/>
         <v>10015</v>
@@ -9325,10 +9331,10 @@
       <c r="E38" s="21">
         <v>817</v>
       </c>
-      <c r="F38" s="111">
+      <c r="F38" s="121">
         <v>45056</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="122">
         <v>817</v>
       </c>
       <c r="H38" s="19">
@@ -9350,11 +9356,15 @@
       <c r="E39" s="21">
         <v>993</v>
       </c>
-      <c r="F39" s="111"/>
-      <c r="G39" s="21"/>
+      <c r="F39" s="121">
+        <v>45063</v>
+      </c>
+      <c r="G39" s="122">
+        <v>993</v>
+      </c>
       <c r="H39" s="19">
         <f t="shared" si="0"/>
-        <v>993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -9410,11 +9420,11 @@
       <c r="F43" s="113"/>
       <c r="G43" s="40">
         <f>SUM(G4:G42)</f>
-        <v>431037</v>
+        <v>432030</v>
       </c>
       <c r="H43" s="41">
         <f>SUM(H23:H42)</f>
-        <v>11008</v>
+        <v>10015</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -9458,7 +9468,7 @@
       <c r="D47" s="39"/>
       <c r="E47" s="182">
         <f>E43-G43</f>
-        <v>11008</v>
+        <v>10015</v>
       </c>
       <c r="F47" s="183"/>
       <c r="G47" s="184"/>
@@ -9631,7 +9641,8 @@
     <mergeCell ref="E49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10577,7 +10588,8 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10767,11 +10779,15 @@
       <c r="E9" s="21">
         <v>490</v>
       </c>
-      <c r="F9" s="111"/>
-      <c r="G9" s="21"/>
+      <c r="F9" s="111">
+        <v>45063</v>
+      </c>
+      <c r="G9" s="21">
+        <v>490</v>
+      </c>
       <c r="H9" s="19">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -10809,11 +10825,15 @@
       <c r="E11" s="21">
         <v>1408</v>
       </c>
-      <c r="F11" s="111"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="111">
+        <v>45063</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1408</v>
+      </c>
       <c r="H11" s="19">
         <f t="shared" si="0"/>
-        <v>1408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -10872,11 +10892,15 @@
       <c r="E14" s="21">
         <v>5189</v>
       </c>
-      <c r="F14" s="111"/>
-      <c r="G14" s="21"/>
+      <c r="F14" s="111">
+        <v>45064</v>
+      </c>
+      <c r="G14" s="21">
+        <v>5189</v>
+      </c>
       <c r="H14" s="19">
         <f t="shared" si="0"/>
-        <v>5189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -10947,138 +10971,200 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="165"/>
+      <c r="A18" s="165">
+        <v>45062</v>
+      </c>
       <c r="B18" s="15">
         <v>765</v>
       </c>
       <c r="C18" s="27"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="21">
+        <v>13313</v>
+      </c>
       <c r="F18" s="111"/>
       <c r="G18" s="21"/>
       <c r="H18" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13313</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="165"/>
+      <c r="A19" s="165">
+        <v>45063</v>
+      </c>
       <c r="B19" s="15">
         <v>766</v>
       </c>
       <c r="C19" s="28"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="21"/>
+      <c r="D19" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="21">
+        <v>1009</v>
+      </c>
       <c r="F19" s="111"/>
       <c r="G19" s="21"/>
       <c r="H19" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="165"/>
+      <c r="A20" s="165">
+        <v>45063</v>
+      </c>
       <c r="B20" s="15">
         <v>767</v>
       </c>
       <c r="C20" s="27"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="21"/>
+      <c r="D20" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="21">
+        <v>508</v>
+      </c>
+      <c r="F20" s="111">
+        <v>45063</v>
+      </c>
+      <c r="G20" s="21">
+        <v>508</v>
+      </c>
       <c r="H20" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="165"/>
+      <c r="A21" s="165">
+        <v>45063</v>
+      </c>
       <c r="B21" s="15">
         <v>768</v>
       </c>
       <c r="C21" s="27"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="21"/>
+      <c r="D21" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="21">
+        <v>28100</v>
+      </c>
       <c r="F21" s="111"/>
       <c r="G21" s="21"/>
       <c r="H21" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28100</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="165"/>
+      <c r="A22" s="165">
+        <v>45064</v>
+      </c>
       <c r="B22" s="15">
         <v>769</v>
       </c>
       <c r="C22" s="27"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="21"/>
+      <c r="D22" s="147" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="21">
+        <v>17730</v>
+      </c>
       <c r="F22" s="111"/>
       <c r="G22" s="21"/>
       <c r="H22" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17730</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="165"/>
+      <c r="A23" s="165">
+        <v>45064</v>
+      </c>
       <c r="B23" s="15">
         <v>770</v>
       </c>
       <c r="C23" s="27"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="21"/>
+      <c r="D23" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="21">
+        <v>64302</v>
+      </c>
       <c r="F23" s="111"/>
       <c r="G23" s="21"/>
       <c r="H23" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>64302</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="165"/>
+      <c r="A24" s="165">
+        <v>45065</v>
+      </c>
       <c r="B24" s="15">
         <v>771</v>
       </c>
       <c r="C24" s="27"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="21"/>
+      <c r="D24" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="21">
+        <v>369</v>
+      </c>
       <c r="F24" s="111"/>
       <c r="G24" s="21"/>
       <c r="H24" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="166"/>
+      <c r="A25" s="166">
+        <v>45065</v>
+      </c>
       <c r="B25" s="15">
         <v>772</v>
       </c>
       <c r="C25" s="27"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="21"/>
+      <c r="D25" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="21">
+        <v>1400</v>
+      </c>
+      <c r="F25" s="111">
+        <v>45065</v>
+      </c>
+      <c r="G25" s="21">
+        <v>1400</v>
+      </c>
       <c r="H25" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="166"/>
+      <c r="A26" s="166">
+        <v>45066</v>
+      </c>
       <c r="B26" s="15">
         <v>773</v>
       </c>
       <c r="C26" s="27"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="21"/>
+      <c r="D26" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="21">
+        <v>22066</v>
+      </c>
       <c r="F26" s="111"/>
       <c r="G26" s="21"/>
       <c r="H26" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22066</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -11117,7 +11203,9 @@
         <v>776</v>
       </c>
       <c r="C29" s="27"/>
-      <c r="D29" s="17"/>
+      <c r="D29" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="E29" s="21"/>
       <c r="F29" s="111"/>
       <c r="G29" s="21"/>
@@ -11177,7 +11265,9 @@
         <v>780</v>
       </c>
       <c r="C33" s="27"/>
-      <c r="D33" s="17"/>
+      <c r="D33" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="E33" s="21"/>
       <c r="F33" s="111"/>
       <c r="G33" s="21"/>
@@ -11324,16 +11414,16 @@
       <c r="D43" s="39"/>
       <c r="E43" s="40">
         <f>SUM(E4:E42)</f>
-        <v>102775</v>
+        <v>251572</v>
       </c>
       <c r="F43" s="113"/>
       <c r="G43" s="40">
         <f>SUM(G4:G42)</f>
-        <v>33549</v>
+        <v>42544</v>
       </c>
       <c r="H43" s="41">
         <f>SUM(H23:H42)</f>
-        <v>0</v>
+        <v>86737</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -11377,7 +11467,7 @@
       <c r="D47" s="39"/>
       <c r="E47" s="182">
         <f>E43-G43</f>
-        <v>69226</v>
+        <v>209028</v>
       </c>
       <c r="F47" s="183"/>
       <c r="G47" s="184"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS     ZAVALETA   Mayo    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS     ZAVALETA   Mayo    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -9653,8 +9653,8 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9722,7 +9722,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
@@ -9744,7 +9744,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -9767,7 +9767,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
@@ -9790,7 +9790,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
@@ -9812,7 +9812,7 @@
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
@@ -9834,7 +9834,7 @@
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
@@ -9856,7 +9856,7 @@
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
@@ -9878,7 +9878,7 @@
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
@@ -9900,7 +9900,7 @@
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -9922,7 +9922,7 @@
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
@@ -9944,7 +9944,7 @@
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
@@ -9966,7 +9966,7 @@
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -9988,7 +9988,7 @@
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -10010,7 +10010,7 @@
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10032,7 +10032,7 @@
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10054,7 +10054,7 @@
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10076,7 +10076,7 @@
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10098,7 +10098,7 @@
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10120,7 +10120,7 @@
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10142,7 +10142,7 @@
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10164,7 +10164,7 @@
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10186,7 +10186,7 @@
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10208,7 +10208,7 @@
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10230,7 +10230,7 @@
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10259,7 +10259,7 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-320284.77</v>
+        <v>-76473.770000000019</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -10281,7 +10281,7 @@
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-320284.77</v>
+        <v>-76473.770000000019</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -10323,57 +10323,93 @@
       <c r="J31" s="100"/>
     </row>
     <row r="32" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="82"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="103"/>
+      <c r="B32" s="82">
+        <v>45069</v>
+      </c>
+      <c r="C32" s="87">
+        <v>45076</v>
+      </c>
+      <c r="D32" s="103">
+        <v>60094</v>
+      </c>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>1499238.5</v>
+        <v>1559332.5</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="82"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="103"/>
+      <c r="B33" s="82">
+        <v>45070</v>
+      </c>
+      <c r="C33" s="87">
+        <v>45076</v>
+      </c>
+      <c r="D33" s="103">
+        <v>32470</v>
+      </c>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>1499238.5</v>
+        <v>1591802.5</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="82"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="103"/>
+      <c r="B34" s="82">
+        <v>45071</v>
+      </c>
+      <c r="C34" s="87">
+        <v>45076</v>
+      </c>
+      <c r="D34" s="103">
+        <v>8905</v>
+      </c>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
-        <v>1499238.5</v>
+        <v>1600707.5</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="82"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="84"/>
+      <c r="B35" s="82">
+        <v>45072</v>
+      </c>
+      <c r="C35" s="87">
+        <v>45076</v>
+      </c>
+      <c r="D35" s="84">
+        <v>47718</v>
+      </c>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
-        <v>1499238.5</v>
+        <v>1648425.5</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="82"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="84"/>
+      <c r="B36" s="82">
+        <v>45073</v>
+      </c>
+      <c r="C36" s="87">
+        <v>45076</v>
+      </c>
+      <c r="D36" s="84">
+        <v>40430</v>
+      </c>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>1499238.5</v>
+        <v>1688855.5</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="82"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="84"/>
+      <c r="B37" s="82">
+        <v>45074</v>
+      </c>
+      <c r="C37" s="87">
+        <v>45076</v>
+      </c>
+      <c r="D37" s="84">
+        <v>54194</v>
+      </c>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10382,7 +10418,7 @@
       <c r="D38" s="84"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10391,7 +10427,7 @@
       <c r="D39" s="84"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10400,7 +10436,7 @@
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10409,7 +10445,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="20">
         <f t="shared" si="0"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10418,7 +10454,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -10427,7 +10463,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="125"/>
@@ -10438,7 +10474,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
       <c r="I44" s="126"/>
       <c r="J44" s="125"/>
@@ -10449,7 +10485,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="125"/>
@@ -10460,7 +10496,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
       <c r="F46"/>
       <c r="I46" s="126"/>
@@ -10472,7 +10508,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>1499238.5</v>
+        <v>1743049.5</v>
       </c>
       <c r="F47"/>
       <c r="I47" s="126"/>
@@ -10587,7 +10623,7 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS     ZAVALETA   Mayo    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS     ZAVALETA   Mayo    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -20,8 +20,11 @@
     <sheet name="   A B R I L    2 0 2 3    " sheetId="7" r:id="rId6"/>
     <sheet name="PAGO ZAVALETA  &amp; OBRADOR  Abril" sheetId="8" r:id="rId7"/>
     <sheet name="   M A Y O     2 0 2 3         " sheetId="9" r:id="rId8"/>
-    <sheet name="Hoja1" sheetId="10" r:id="rId9"/>
-    <sheet name="Hoja3" sheetId="11" r:id="rId10"/>
+    <sheet name="  J U N I O        2 0 2 3     " sheetId="15" r:id="rId9"/>
+    <sheet name="PAGOS ZAVALEZ  &amp; OBRADOR JUNIO " sheetId="10" r:id="rId10"/>
+    <sheet name="Hoja3" sheetId="11" r:id="rId11"/>
+    <sheet name="Hoja1" sheetId="12" r:id="rId12"/>
+    <sheet name="Hoja2" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="63">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -549,7 +552,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,6 +628,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,7 +1005,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1424,6 +1439,19 @@
     <xf numFmtId="164" fontId="29" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="28" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="23" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1433,16 +1461,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFCC99FF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF9966FF"/>
       <color rgb="FF99FF99"/>
       <color rgb="FF3399FF"/>
-      <color rgb="FFFF00FF"/>
-      <color rgb="FF00FF00"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FFCC6600"/>
-      <color rgb="FFCC99FF"/>
-      <color rgb="FFFF9900"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2264,6 +2292,58 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>207010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="F:\02 IMAGENES\ABASTO 4 CARNES\ADMON----- PEPE-ELIAS\OBRADOR  ZAVALETA  2022\ZAVALETA &amp; OBRADOR  2023\12.-  Zavaleta debe a Obrador 31-May-23.jpeg"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10791825" y="171450"/>
+          <a:ext cx="6858000" cy="8493760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -3520,11 +3600,814 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
+  <dimension ref="A2:Z61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="76" customWidth="1"/>
+    <col min="2" max="2" width="14" style="76" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="76" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="49" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="76" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="81" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="Z2" s="153"/>
+    </row>
+    <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="82"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="85">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="86"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="20">
+        <f>E47+I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="82"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="20">
+        <f>E4+D5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="82"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="20">
+        <f>J4+I5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="82"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="20">
+        <f t="shared" ref="E6:E47" si="0">E5+D6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="89"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="20">
+        <f t="shared" ref="J6:J29" si="1">J5+I6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="82"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="89"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="82"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="82"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="82"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="82"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="91"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="82"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="91"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="82"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="91"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="171"/>
+      <c r="E12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="82"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="91"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="82"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="91"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="171"/>
+      <c r="E14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="82"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="91"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="82"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="91"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="82"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="91"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="82"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="91"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="82"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="91"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="82"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="91"/>
+      <c r="C20" s="172"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="82"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="91"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="82"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="91"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="82"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="91"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="82"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="91"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="82"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="91"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="82"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="91"/>
+      <c r="C26" s="172"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="82"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="91"/>
+      <c r="C27" s="199"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="94"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="91"/>
+      <c r="C28" s="199"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="97"/>
+      <c r="G28" s="201">
+        <v>45077</v>
+      </c>
+      <c r="H28" s="203" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="202">
+        <v>-1920958.81</v>
+      </c>
+      <c r="J28" s="20">
+        <f t="shared" si="1"/>
+        <v>-1920958.81</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B29" s="91"/>
+      <c r="C29" s="199"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="20">
+        <f t="shared" si="1"/>
+        <v>-1920958.81</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="91"/>
+      <c r="C30" s="199"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="100"/>
+    </row>
+    <row r="31" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B31" s="52"/>
+      <c r="C31" s="200"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="100"/>
+    </row>
+    <row r="32" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="82"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="82"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="161"/>
+      <c r="I33" s="161"/>
+    </row>
+    <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="82"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="161"/>
+      <c r="I34" s="161"/>
+    </row>
+    <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="82"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="161"/>
+      <c r="I35" s="161"/>
+    </row>
+    <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="82"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="161"/>
+      <c r="I36" s="161"/>
+    </row>
+    <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="82"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="161"/>
+      <c r="I37" s="161"/>
+    </row>
+    <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="82"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="161"/>
+      <c r="I38" s="161"/>
+    </row>
+    <row r="39" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="82"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="161"/>
+      <c r="I39" s="161"/>
+    </row>
+    <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="82"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="82"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="82"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="82"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="126"/>
+      <c r="J43" s="125"/>
+    </row>
+    <row r="44" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="82"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="126"/>
+      <c r="J44" s="125"/>
+    </row>
+    <row r="45" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="82"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="126"/>
+      <c r="J45" s="125"/>
+    </row>
+    <row r="46" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="82"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46"/>
+      <c r="I46" s="126"/>
+      <c r="J46" s="125"/>
+    </row>
+    <row r="47" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="82"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47"/>
+      <c r="I47" s="126"/>
+      <c r="J47" s="125"/>
+    </row>
+    <row r="48" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="81"/>
+      <c r="D48"/>
+      <c r="E48" s="104"/>
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C49" s="81"/>
+      <c r="D49"/>
+      <c r="E49" s="104"/>
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C50" s="81"/>
+      <c r="D50"/>
+      <c r="E50" s="104"/>
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C51" s="81"/>
+      <c r="D51"/>
+      <c r="E51" s="104"/>
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C52" s="81"/>
+      <c r="D52"/>
+      <c r="E52" s="104"/>
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C53" s="81"/>
+      <c r="D53"/>
+      <c r="E53" s="104"/>
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B54" s="132"/>
+      <c r="C54" s="133"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="132"/>
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B55" s="132"/>
+      <c r="C55" s="133"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="132"/>
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B56" s="135"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="141"/>
+      <c r="E56" s="132"/>
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B57" s="135"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="143"/>
+      <c r="E57" s="132"/>
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B58" s="135"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="132"/>
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="2:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B59" s="135"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="132"/>
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B60" s="139"/>
+      <c r="C60" s="133"/>
+      <c r="D60" s="132"/>
+      <c r="E60" s="132"/>
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B61" s="139"/>
+      <c r="C61" s="133"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="132"/>
+      <c r="F61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -7397,10 +8280,10 @@
   <dimension ref="A2:Z61"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G36:G37"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9653,8 +10536,8 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9722,7 +10605,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
@@ -9744,7 +10627,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -9767,7 +10650,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
@@ -9790,7 +10673,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
@@ -9812,7 +10695,7 @@
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
@@ -9834,7 +10717,7 @@
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
@@ -9856,7 +10739,7 @@
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
@@ -9878,7 +10761,7 @@
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
@@ -9900,7 +10783,7 @@
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -9922,7 +10805,7 @@
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
@@ -9944,7 +10827,7 @@
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
@@ -9966,7 +10849,7 @@
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -9988,7 +10871,7 @@
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -10010,7 +10893,7 @@
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10032,7 +10915,7 @@
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10054,7 +10937,7 @@
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10076,7 +10959,7 @@
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10098,7 +10981,7 @@
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10120,7 +11003,7 @@
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10142,7 +11025,7 @@
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10164,7 +11047,7 @@
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10186,7 +11069,7 @@
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10208,7 +11091,7 @@
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10230,7 +11113,7 @@
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10259,7 +11142,7 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-76473.770000000019</v>
+        <v>0.22999999998137355</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -10281,7 +11164,7 @@
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-76473.770000000019</v>
+        <v>0.22999999998137355</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -10322,7 +11205,7 @@
       <c r="I31" s="99"/>
       <c r="J31" s="100"/>
     </row>
-    <row r="32" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="82">
         <v>45069</v>
       </c>
@@ -10351,6 +11234,10 @@
         <f t="shared" si="0"/>
         <v>1591802.5</v>
       </c>
+      <c r="H33" s="193" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="194"/>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="82">
@@ -10366,6 +11253,8 @@
         <f t="shared" si="0"/>
         <v>1600707.5</v>
       </c>
+      <c r="H34" s="195"/>
+      <c r="I34" s="196"/>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="82">
@@ -10381,6 +11270,8 @@
         <f t="shared" si="0"/>
         <v>1648425.5</v>
       </c>
+      <c r="H35" s="195"/>
+      <c r="I35" s="196"/>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="82">
@@ -10396,6 +11287,8 @@
         <f t="shared" si="0"/>
         <v>1688855.5</v>
       </c>
+      <c r="H36" s="195"/>
+      <c r="I36" s="196"/>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="82">
@@ -10411,24 +11304,42 @@
         <f t="shared" si="0"/>
         <v>1743049.5</v>
       </c>
+      <c r="H37" s="195"/>
+      <c r="I37" s="196"/>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="82"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="84"/>
+      <c r="B38" s="82">
+        <v>45075</v>
+      </c>
+      <c r="C38" s="87">
+        <v>45077</v>
+      </c>
+      <c r="D38" s="84">
+        <v>37557</v>
+      </c>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>1743049.5</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="82"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="84"/>
+        <v>1780606.5</v>
+      </c>
+      <c r="H38" s="195"/>
+      <c r="I38" s="196"/>
+    </row>
+    <row r="39" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="82">
+        <v>45076</v>
+      </c>
+      <c r="C39" s="87">
+        <v>45077</v>
+      </c>
+      <c r="D39" s="84">
+        <v>38917</v>
+      </c>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>1743049.5</v>
-      </c>
+        <v>1819523.5</v>
+      </c>
+      <c r="H39" s="197"/>
+      <c r="I39" s="198"/>
     </row>
     <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="82"/>
@@ -10436,7 +11347,7 @@
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10445,7 +11356,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="20">
         <f t="shared" si="0"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10454,7 +11365,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -10463,7 +11374,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="125"/>
@@ -10474,7 +11385,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
       <c r="I44" s="126"/>
       <c r="J44" s="125"/>
@@ -10485,7 +11396,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="125"/>
@@ -10496,7 +11407,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
       <c r="F46"/>
       <c r="I46" s="126"/>
@@ -10508,7 +11419,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>1743049.5</v>
+        <v>1819523.5</v>
       </c>
       <c r="F47"/>
       <c r="I47" s="126"/>
@@ -10607,8 +11518,9 @@
       <c r="F61"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:J2"/>
+    <mergeCell ref="H33:I39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10625,7 +11537,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D41:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11682,9 +12594,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS     ZAVALETA   Mayo    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS     ZAVALETA   Mayo    2023.xlsx
@@ -1376,6 +1376,19 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="13" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="28" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="23" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1439,19 +1452,6 @@
     <xf numFmtId="164" fontId="29" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="28" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="23" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1461,8 +1461,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
       <color rgb="FF00FF00"/>
-      <color rgb="FFFF00FF"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF0000FF"/>
@@ -2304,8 +2304,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>207010</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>168910</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2633,25 +2633,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="180"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="185"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="181" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
+      <c r="B2" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3418,12 +3418,12 @@
       <c r="B37" s="37"/>
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="182">
+      <c r="E37" s="187">
         <f>E33-G33</f>
         <v>0</v>
       </c>
-      <c r="F37" s="183"/>
-      <c r="G37" s="184"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="189"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3439,11 +3439,11 @@
       <c r="B39" s="37"/>
       <c r="C39" s="38"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="185" t="s">
+      <c r="E39" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="185"/>
-      <c r="G39" s="185"/>
+      <c r="F39" s="190"/>
+      <c r="G39" s="190"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3605,8 +3605,8 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3623,17 +3623,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
       <c r="Z2" s="153"/>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -3654,13 +3654,19 @@
       <c r="I3" s="81"/>
       <c r="J3" s="81"/>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="82"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="84"/>
+    <row r="4" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="82">
+        <v>45076</v>
+      </c>
+      <c r="C4" s="152">
+        <v>45082</v>
+      </c>
+      <c r="D4" s="84">
+        <v>28959</v>
+      </c>
       <c r="E4" s="85">
         <f>D4</f>
-        <v>0</v>
+        <v>28959</v>
       </c>
       <c r="F4" s="86"/>
       <c r="G4" s="82"/>
@@ -3668,32 +3674,44 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="82"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="84"/>
+        <v>293436</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="82">
+        <v>45077</v>
+      </c>
+      <c r="C5" s="152">
+        <v>45082</v>
+      </c>
+      <c r="D5" s="84">
+        <v>49216</v>
+      </c>
       <c r="E5" s="20">
         <f>E4+D5</f>
-        <v>0</v>
+        <v>78175</v>
       </c>
       <c r="G5" s="82"/>
       <c r="H5" s="87"/>
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="82"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="84"/>
+        <v>293436</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="82">
+        <v>45078</v>
+      </c>
+      <c r="C6" s="152">
+        <v>45082</v>
+      </c>
+      <c r="D6" s="84">
+        <v>85441</v>
+      </c>
       <c r="E6" s="20">
         <f t="shared" ref="E6:E47" si="0">E5+D6</f>
-        <v>0</v>
+        <v>163616</v>
       </c>
       <c r="F6" s="89"/>
       <c r="G6" s="82"/>
@@ -3701,16 +3719,22 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="82"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="84"/>
+        <v>293436</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="82">
+        <v>45079</v>
+      </c>
+      <c r="C7" s="152">
+        <v>45082</v>
+      </c>
+      <c r="D7" s="84">
+        <v>62238</v>
+      </c>
       <c r="E7" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>225854</v>
       </c>
       <c r="F7" s="89"/>
       <c r="G7" s="82"/>
@@ -3718,183 +3742,189 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="82"/>
-      <c r="C8" s="152"/>
-      <c r="D8" s="84"/>
+        <v>293436</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="82">
+        <v>45080</v>
+      </c>
+      <c r="C8" s="152">
+        <v>45082</v>
+      </c>
+      <c r="D8" s="84">
+        <v>67582</v>
+      </c>
       <c r="E8" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="G8" s="82"/>
       <c r="H8" s="87"/>
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+        <v>293436</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="82"/>
       <c r="C9" s="152"/>
       <c r="D9" s="84"/>
       <c r="E9" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="G9" s="82"/>
       <c r="H9" s="90"/>
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+        <v>293436</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="91"/>
       <c r="C10" s="170"/>
       <c r="D10" s="171"/>
       <c r="E10" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="G10" s="82"/>
       <c r="H10" s="90"/>
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+        <v>293436</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="91"/>
       <c r="C11" s="170"/>
       <c r="D11" s="171"/>
       <c r="E11" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="G11" s="82"/>
       <c r="H11" s="90"/>
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+        <v>293436</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="91"/>
       <c r="C12" s="170"/>
       <c r="D12" s="171"/>
       <c r="E12" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="G12" s="82"/>
       <c r="H12" s="90"/>
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+        <v>293436</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="91"/>
       <c r="C13" s="170"/>
       <c r="D13" s="171"/>
       <c r="E13" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="G13" s="82"/>
       <c r="H13" s="90"/>
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+        <v>293436</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="91"/>
       <c r="C14" s="170"/>
       <c r="D14" s="171"/>
       <c r="E14" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="G14" s="82"/>
       <c r="H14" s="90"/>
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+        <v>293436</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="91"/>
       <c r="C15" s="170"/>
       <c r="D15" s="171"/>
       <c r="E15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="G15" s="82"/>
       <c r="H15" s="90"/>
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+        <v>293436</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="91"/>
       <c r="C16" s="170"/>
       <c r="D16" s="171"/>
       <c r="E16" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="G16" s="82"/>
       <c r="H16" s="90"/>
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+        <v>293436</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="91"/>
       <c r="C17" s="170"/>
       <c r="D17" s="171"/>
       <c r="E17" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="G17" s="82"/>
       <c r="H17" s="87"/>
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>293436</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="91"/>
       <c r="C18" s="172"/>
       <c r="D18" s="173"/>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="G18" s="82"/>
       <c r="H18" s="87"/>
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3903,14 +3933,14 @@
       <c r="D19" s="173"/>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="G19" s="82"/>
       <c r="H19" s="87"/>
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3919,14 +3949,14 @@
       <c r="D20" s="173"/>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="G20" s="82"/>
       <c r="H20" s="87"/>
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3935,14 +3965,14 @@
       <c r="D21" s="173"/>
       <c r="E21" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="G21" s="82"/>
       <c r="H21" s="87"/>
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3951,14 +3981,14 @@
       <c r="D22" s="173"/>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="G22" s="82"/>
       <c r="H22" s="87"/>
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3967,14 +3997,14 @@
       <c r="D23" s="173"/>
       <c r="E23" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="G23" s="82"/>
       <c r="H23" s="87"/>
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3983,14 +4013,14 @@
       <c r="D24" s="173"/>
       <c r="E24" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="G24" s="82"/>
       <c r="H24" s="87"/>
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3999,14 +4029,14 @@
       <c r="D25" s="173"/>
       <c r="E25" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="G25" s="82"/>
       <c r="H25" s="87"/>
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4015,78 +4045,78 @@
       <c r="D26" s="173"/>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="G26" s="82"/>
       <c r="H26" s="87"/>
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="91"/>
-      <c r="C27" s="199"/>
+      <c r="C27" s="178"/>
       <c r="D27" s="21"/>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="G27" s="94"/>
       <c r="H27" s="95"/>
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="91"/>
-      <c r="C28" s="199"/>
+      <c r="C28" s="178"/>
       <c r="D28" s="21"/>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="F28" s="97"/>
-      <c r="G28" s="201">
+      <c r="G28" s="180">
         <v>45077</v>
       </c>
-      <c r="H28" s="203" t="s">
+      <c r="H28" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="202">
+      <c r="I28" s="181">
         <v>-1920958.81</v>
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-1920958.81</v>
+        <v>-1627522.81</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B29" s="91"/>
-      <c r="C29" s="199"/>
+      <c r="C29" s="178"/>
       <c r="D29" s="21"/>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="G29" s="99"/>
       <c r="H29" s="99"/>
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-1920958.81</v>
+        <v>-1627522.81</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B30" s="91"/>
-      <c r="C30" s="199"/>
+      <c r="C30" s="178"/>
       <c r="D30" s="21"/>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="99"/>
@@ -4095,11 +4125,11 @@
     </row>
     <row r="31" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B31" s="52"/>
-      <c r="C31" s="200"/>
+      <c r="C31" s="179"/>
       <c r="D31" s="102"/>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="99"/>
@@ -4112,7 +4142,7 @@
       <c r="D32" s="103"/>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4121,7 +4151,7 @@
       <c r="D33" s="103"/>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="H33" s="161"/>
       <c r="I33" s="161"/>
@@ -4132,7 +4162,7 @@
       <c r="D34" s="103"/>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="H34" s="161"/>
       <c r="I34" s="161"/>
@@ -4143,7 +4173,7 @@
       <c r="D35" s="84"/>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="H35" s="161"/>
       <c r="I35" s="161"/>
@@ -4154,7 +4184,7 @@
       <c r="D36" s="84"/>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="H36" s="161"/>
       <c r="I36" s="161"/>
@@ -4165,7 +4195,7 @@
       <c r="D37" s="84"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="H37" s="161"/>
       <c r="I37" s="161"/>
@@ -4176,7 +4206,7 @@
       <c r="D38" s="84"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="H38" s="161"/>
       <c r="I38" s="161"/>
@@ -4187,7 +4217,7 @@
       <c r="D39" s="84"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="H39" s="161"/>
       <c r="I39" s="161"/>
@@ -4198,7 +4228,7 @@
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4207,7 +4237,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4216,7 +4246,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -4225,7 +4255,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="125"/>
@@ -4236,7 +4266,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="I44" s="126"/>
       <c r="J44" s="125"/>
@@ -4247,7 +4277,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="125"/>
@@ -4258,7 +4288,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="F46"/>
       <c r="I46" s="126"/>
@@ -4270,7 +4300,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>293436</v>
       </c>
       <c r="F47"/>
       <c r="I47" s="126"/>
@@ -4442,17 +4472,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -4779,10 +4809,10 @@
         <v>516161</v>
       </c>
       <c r="G17" s="82"/>
-      <c r="H17" s="187" t="s">
+      <c r="H17" s="192" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="188"/>
+      <c r="I17" s="193"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -4803,8 +4833,8 @@
         <v>552828.5</v>
       </c>
       <c r="G18" s="82"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="190"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="195"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -4825,8 +4855,8 @@
         <v>590198</v>
       </c>
       <c r="G19" s="82"/>
-      <c r="H19" s="189"/>
-      <c r="I19" s="190"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="195"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -4847,8 +4877,8 @@
         <v>630461</v>
       </c>
       <c r="G20" s="82"/>
-      <c r="H20" s="189"/>
-      <c r="I20" s="190"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="195"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -4869,8 +4899,8 @@
         <v>709244</v>
       </c>
       <c r="G21" s="82"/>
-      <c r="H21" s="189"/>
-      <c r="I21" s="190"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="195"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -4891,8 +4921,8 @@
         <v>764839.5</v>
       </c>
       <c r="G22" s="82"/>
-      <c r="H22" s="189"/>
-      <c r="I22" s="190"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="195"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -4913,8 +4943,8 @@
         <v>826492.5</v>
       </c>
       <c r="G23" s="82"/>
-      <c r="H23" s="189"/>
-      <c r="I23" s="190"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="195"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -4935,8 +4965,8 @@
         <v>830566.5</v>
       </c>
       <c r="G24" s="82"/>
-      <c r="H24" s="189"/>
-      <c r="I24" s="190"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="195"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -4957,8 +4987,8 @@
         <v>886266.5</v>
       </c>
       <c r="G25" s="82"/>
-      <c r="H25" s="189"/>
-      <c r="I25" s="190"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="195"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -4979,8 +5009,8 @@
         <v>926936.5</v>
       </c>
       <c r="G26" s="82"/>
-      <c r="H26" s="191"/>
-      <c r="I26" s="192"/>
+      <c r="H26" s="196"/>
+      <c r="I26" s="197"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
         <v>2029342</v>
@@ -5480,25 +5510,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="180"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="185"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="181" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
+      <c r="B2" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6772,12 +6802,12 @@
       <c r="B59" s="37"/>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="182">
+      <c r="E59" s="187">
         <f>E55-G55</f>
         <v>12119</v>
       </c>
-      <c r="F59" s="183"/>
-      <c r="G59" s="184"/>
+      <c r="F59" s="188"/>
+      <c r="G59" s="189"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -6793,11 +6823,11 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="185" t="s">
+      <c r="E61" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="185"/>
-      <c r="G61" s="185"/>
+      <c r="F61" s="190"/>
+      <c r="G61" s="190"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -6978,25 +7008,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="183" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="180"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="185"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="181" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
+      <c r="B2" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8092,12 +8122,12 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="39"/>
-      <c r="E50" s="182">
+      <c r="E50" s="187">
         <f>E46-G46</f>
         <v>0</v>
       </c>
-      <c r="F50" s="183"/>
-      <c r="G50" s="184"/>
+      <c r="F50" s="188"/>
+      <c r="G50" s="189"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -8113,11 +8143,11 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="39"/>
-      <c r="E52" s="185" t="s">
+      <c r="E52" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="185"/>
-      <c r="G52" s="185"/>
+      <c r="F52" s="190"/>
+      <c r="G52" s="190"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -8300,17 +8330,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
       <c r="Z2" s="105" t="s">
         <v>17</v>
       </c>
@@ -8949,10 +8979,10 @@
         <v>2030981</v>
       </c>
       <c r="G31" s="99"/>
-      <c r="H31" s="193" t="s">
+      <c r="H31" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="194"/>
+      <c r="I31" s="199"/>
       <c r="J31" s="161"/>
       <c r="K31" s="159"/>
       <c r="L31" s="159"/>
@@ -8976,8 +9006,8 @@
         <f t="shared" si="0"/>
         <v>2080331.5</v>
       </c>
-      <c r="H32" s="195"/>
-      <c r="I32" s="196"/>
+      <c r="H32" s="200"/>
+      <c r="I32" s="201"/>
       <c r="J32" s="160"/>
       <c r="K32" s="160"/>
       <c r="L32" s="160"/>
@@ -9001,8 +9031,8 @@
         <f t="shared" si="0"/>
         <v>2142646.5</v>
       </c>
-      <c r="H33" s="195"/>
-      <c r="I33" s="196"/>
+      <c r="H33" s="200"/>
+      <c r="I33" s="201"/>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="82">
@@ -9018,8 +9048,8 @@
         <f t="shared" si="0"/>
         <v>2169276.5</v>
       </c>
-      <c r="H34" s="195"/>
-      <c r="I34" s="196"/>
+      <c r="H34" s="200"/>
+      <c r="I34" s="201"/>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="82">
@@ -9035,8 +9065,8 @@
         <f t="shared" si="0"/>
         <v>2197922.5</v>
       </c>
-      <c r="H35" s="195"/>
-      <c r="I35" s="196"/>
+      <c r="H35" s="200"/>
+      <c r="I35" s="201"/>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="82">
@@ -9052,8 +9082,8 @@
         <f t="shared" si="0"/>
         <v>2235001.5</v>
       </c>
-      <c r="H36" s="195"/>
-      <c r="I36" s="196"/>
+      <c r="H36" s="200"/>
+      <c r="I36" s="201"/>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="154" t="s">
@@ -9069,8 +9099,8 @@
         <f t="shared" si="0"/>
         <v>2407225.2999999998</v>
       </c>
-      <c r="H37" s="197"/>
-      <c r="I37" s="198"/>
+      <c r="H37" s="202"/>
+      <c r="I37" s="203"/>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="82"/>
@@ -9302,25 +9332,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="180"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="185"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="163"/>
-      <c r="B2" s="181" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
+      <c r="B2" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10349,12 +10379,12 @@
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="182">
+      <c r="E47" s="187">
         <f>E43-G43</f>
         <v>10015</v>
       </c>
-      <c r="F47" s="183"/>
-      <c r="G47" s="184"/>
+      <c r="F47" s="188"/>
+      <c r="G47" s="189"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -10370,11 +10400,11 @@
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="185" t="s">
+      <c r="E49" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="185"/>
-      <c r="G49" s="185"/>
+      <c r="F49" s="190"/>
+      <c r="G49" s="190"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -10554,17 +10584,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
       <c r="Z2" s="153"/>
     </row>
     <row r="3" spans="2:26" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -11234,10 +11264,10 @@
         <f t="shared" si="0"/>
         <v>1591802.5</v>
       </c>
-      <c r="H33" s="193" t="s">
+      <c r="H33" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="194"/>
+      <c r="I33" s="199"/>
     </row>
     <row r="34" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="82">
@@ -11253,8 +11283,8 @@
         <f t="shared" si="0"/>
         <v>1600707.5</v>
       </c>
-      <c r="H34" s="195"/>
-      <c r="I34" s="196"/>
+      <c r="H34" s="200"/>
+      <c r="I34" s="201"/>
     </row>
     <row r="35" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="82">
@@ -11270,8 +11300,8 @@
         <f t="shared" si="0"/>
         <v>1648425.5</v>
       </c>
-      <c r="H35" s="195"/>
-      <c r="I35" s="196"/>
+      <c r="H35" s="200"/>
+      <c r="I35" s="201"/>
     </row>
     <row r="36" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="82">
@@ -11287,8 +11317,8 @@
         <f t="shared" si="0"/>
         <v>1688855.5</v>
       </c>
-      <c r="H36" s="195"/>
-      <c r="I36" s="196"/>
+      <c r="H36" s="200"/>
+      <c r="I36" s="201"/>
     </row>
     <row r="37" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="82">
@@ -11304,8 +11334,8 @@
         <f t="shared" si="0"/>
         <v>1743049.5</v>
       </c>
-      <c r="H37" s="195"/>
-      <c r="I37" s="196"/>
+      <c r="H37" s="200"/>
+      <c r="I37" s="201"/>
     </row>
     <row r="38" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="82">
@@ -11321,8 +11351,8 @@
         <f t="shared" si="0"/>
         <v>1780606.5</v>
       </c>
-      <c r="H38" s="195"/>
-      <c r="I38" s="196"/>
+      <c r="H38" s="200"/>
+      <c r="I38" s="201"/>
     </row>
     <row r="39" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="82">
@@ -11338,8 +11368,8 @@
         <f t="shared" si="0"/>
         <v>1819523.5</v>
       </c>
-      <c r="H39" s="197"/>
-      <c r="I39" s="198"/>
+      <c r="H39" s="202"/>
+      <c r="I39" s="203"/>
     </row>
     <row r="40" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="82"/>
@@ -11554,25 +11584,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="180"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="185"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="163"/>
-      <c r="B2" s="181" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
+      <c r="B2" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12413,12 +12443,12 @@
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="182">
+      <c r="E47" s="187">
         <f>E43-G43</f>
         <v>209028</v>
       </c>
-      <c r="F47" s="183"/>
-      <c r="G47" s="184"/>
+      <c r="F47" s="188"/>
+      <c r="G47" s="189"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -12434,11 +12464,11 @@
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="185" t="s">
+      <c r="E49" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="185"/>
-      <c r="G49" s="185"/>
+      <c r="F49" s="190"/>
+      <c r="G49" s="190"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -12595,7 +12625,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFF00FF"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS     ZAVALETA   Mayo    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS     ZAVALETA   Mayo    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="62">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -257,9 +257,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -3605,7 +3602,7 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -4423,12 +4420,28 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A4:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11566,8 +11579,8 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D41:D42"/>
+      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11983,11 +11996,15 @@
       <c r="E19" s="21">
         <v>1009</v>
       </c>
-      <c r="F19" s="111"/>
-      <c r="G19" s="21"/>
+      <c r="F19" s="111">
+        <v>45070</v>
+      </c>
+      <c r="G19" s="21">
+        <v>1009</v>
+      </c>
       <c r="H19" s="19">
         <f t="shared" si="0"/>
-        <v>1009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -12146,80 +12163,108 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="166"/>
+      <c r="A27" s="166">
+        <v>45068</v>
+      </c>
       <c r="B27" s="15">
         <v>774</v>
       </c>
       <c r="C27" s="27"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="21"/>
+      <c r="D27" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="21">
+        <v>2593</v>
+      </c>
       <c r="F27" s="111"/>
       <c r="G27" s="21"/>
       <c r="H27" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="166"/>
+      <c r="A28" s="166">
+        <v>45068</v>
+      </c>
       <c r="B28" s="15">
         <v>775</v>
       </c>
       <c r="C28" s="27"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="21"/>
+      <c r="D28" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="21">
+        <v>561</v>
+      </c>
       <c r="F28" s="111"/>
       <c r="G28" s="21"/>
       <c r="H28" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>561</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="166"/>
+      <c r="A29" s="166">
+        <v>45069</v>
+      </c>
       <c r="B29" s="15">
         <v>776</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="21"/>
+        <v>57</v>
+      </c>
+      <c r="E29" s="21">
+        <v>7250</v>
+      </c>
       <c r="F29" s="111"/>
       <c r="G29" s="21"/>
       <c r="H29" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7250</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="166"/>
+      <c r="A30" s="166">
+        <v>45070</v>
+      </c>
       <c r="B30" s="15">
         <v>777</v>
       </c>
       <c r="C30" s="27"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="21"/>
+      <c r="D30" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="21">
+        <v>1718</v>
+      </c>
       <c r="F30" s="111"/>
       <c r="G30" s="21"/>
       <c r="H30" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="166"/>
+      <c r="A31" s="166">
+        <v>45070</v>
+      </c>
       <c r="B31" s="15">
         <v>778</v>
       </c>
       <c r="C31" s="27"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="21"/>
+      <c r="D31" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="21">
+        <v>442</v>
+      </c>
       <c r="F31" s="111"/>
       <c r="G31" s="21"/>
       <c r="H31" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -12392,16 +12437,16 @@
       <c r="D43" s="39"/>
       <c r="E43" s="40">
         <f>SUM(E4:E42)</f>
-        <v>251572</v>
+        <v>264136</v>
       </c>
       <c r="F43" s="113"/>
       <c r="G43" s="40">
         <f>SUM(G4:G42)</f>
-        <v>42544</v>
+        <v>43553</v>
       </c>
       <c r="H43" s="41">
         <f>SUM(H23:H42)</f>
-        <v>86737</v>
+        <v>99301</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -12445,7 +12490,7 @@
       <c r="D47" s="39"/>
       <c r="E47" s="187">
         <f>E43-G43</f>
-        <v>209028</v>
+        <v>220583</v>
       </c>
       <c r="F47" s="188"/>
       <c r="G47" s="189"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS     ZAVALETA   Mayo    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS     ZAVALETA   Mayo    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="PAGO ZAVALETA  &amp; OBRADOR  Abril" sheetId="8" r:id="rId7"/>
     <sheet name="   M A Y O     2 0 2 3         " sheetId="9" r:id="rId8"/>
     <sheet name="  J U N I O        2 0 2 3     " sheetId="15" r:id="rId9"/>
-    <sheet name="PAGOS ZAVALEZ  &amp; OBRADOR JUNIO " sheetId="10" r:id="rId10"/>
+    <sheet name="PAGOS ZAVALET  &amp; OBRADOR JUNIO " sheetId="10" r:id="rId10"/>
     <sheet name="Hoja3" sheetId="11" r:id="rId11"/>
     <sheet name="Hoja1" sheetId="12" r:id="rId12"/>
     <sheet name="Hoja2" sheetId="13" r:id="rId13"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="61">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -254,9 +254,6 @@
   </si>
   <si>
     <t>9-May-23--10-May-23--13-May-23--15-May-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -3603,7 +3600,7 @@
   <dimension ref="A2:Z61"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4422,7 +4419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -5503,10 +5500,10 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6356,11 +6353,15 @@
       <c r="E35" s="20">
         <v>12119</v>
       </c>
-      <c r="F35" s="149"/>
-      <c r="G35" s="150"/>
+      <c r="F35" s="149">
+        <v>45072</v>
+      </c>
+      <c r="G35" s="150">
+        <v>12119</v>
+      </c>
       <c r="H35" s="19">
         <f t="shared" si="0"/>
-        <v>12119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -6769,11 +6770,11 @@
       <c r="F55" s="113"/>
       <c r="G55" s="40">
         <f>SUM(G4:G54)</f>
-        <v>372292</v>
+        <v>384411</v>
       </c>
       <c r="H55" s="41">
         <f>SUM(H23:H54)</f>
-        <v>12119</v>
+        <v>0</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -6817,7 +6818,7 @@
       <c r="D59" s="39"/>
       <c r="E59" s="187">
         <f>E55-G55</f>
-        <v>12119</v>
+        <v>0</v>
       </c>
       <c r="F59" s="188"/>
       <c r="G59" s="189"/>
@@ -9327,8 +9328,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11578,9 +11579,9 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12109,11 +12110,15 @@
       <c r="E24" s="21">
         <v>369</v>
       </c>
-      <c r="F24" s="111"/>
-      <c r="G24" s="21"/>
+      <c r="F24" s="111">
+        <v>45076</v>
+      </c>
+      <c r="G24" s="21">
+        <v>369</v>
+      </c>
       <c r="H24" s="19">
         <f t="shared" si="0"/>
-        <v>369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -12197,11 +12202,15 @@
       <c r="E28" s="21">
         <v>561</v>
       </c>
-      <c r="F28" s="111"/>
-      <c r="G28" s="21"/>
+      <c r="F28" s="111">
+        <v>45076</v>
+      </c>
+      <c r="G28" s="21">
+        <v>561</v>
+      </c>
       <c r="H28" s="19">
         <f t="shared" si="0"/>
-        <v>561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -12239,11 +12248,15 @@
       <c r="E30" s="21">
         <v>1718</v>
       </c>
-      <c r="F30" s="111"/>
-      <c r="G30" s="21"/>
+      <c r="F30" s="111">
+        <v>45077</v>
+      </c>
+      <c r="G30" s="21">
+        <v>1718</v>
+      </c>
       <c r="H30" s="19">
         <f t="shared" si="0"/>
-        <v>1718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -12260,103 +12273,141 @@
       <c r="E31" s="21">
         <v>442</v>
       </c>
-      <c r="F31" s="111"/>
-      <c r="G31" s="21"/>
+      <c r="F31" s="111">
+        <v>45072</v>
+      </c>
+      <c r="G31" s="21">
+        <v>442</v>
+      </c>
       <c r="H31" s="19">
         <f t="shared" si="0"/>
-        <v>442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="166"/>
+      <c r="A32" s="166">
+        <v>45071</v>
+      </c>
       <c r="B32" s="15">
         <v>779</v>
       </c>
       <c r="C32" s="27"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="21"/>
+      <c r="D32" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="21">
+        <v>11791</v>
+      </c>
       <c r="F32" s="111"/>
       <c r="G32" s="21"/>
       <c r="H32" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11791</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="166"/>
+      <c r="A33" s="166">
+        <v>45071</v>
+      </c>
       <c r="B33" s="15">
         <v>780</v>
       </c>
       <c r="C33" s="27"/>
       <c r="D33" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="21"/>
+        <v>57</v>
+      </c>
+      <c r="E33" s="21">
+        <v>5820</v>
+      </c>
       <c r="F33" s="111"/>
       <c r="G33" s="21"/>
       <c r="H33" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5820</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="166"/>
+      <c r="A34" s="166">
+        <v>45073</v>
+      </c>
       <c r="B34" s="15">
         <v>781</v>
       </c>
       <c r="C34" s="27"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="21"/>
+      <c r="D34" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="21">
+        <v>4950</v>
+      </c>
       <c r="F34" s="111"/>
       <c r="G34" s="21"/>
       <c r="H34" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="166"/>
+      <c r="A35" s="166">
+        <v>45075</v>
+      </c>
       <c r="B35" s="15">
         <v>782</v>
       </c>
       <c r="C35" s="27"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="21"/>
+      <c r="D35" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="21">
+        <v>8480</v>
+      </c>
       <c r="F35" s="111"/>
       <c r="G35" s="21"/>
       <c r="H35" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8480</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="166"/>
+      <c r="A36" s="166">
+        <v>45077</v>
+      </c>
       <c r="B36" s="15">
         <v>783</v>
       </c>
       <c r="C36" s="27"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="21"/>
+      <c r="D36" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="21">
+        <v>1095</v>
+      </c>
       <c r="F36" s="111"/>
       <c r="G36" s="21"/>
       <c r="H36" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="166"/>
+      <c r="A37" s="166">
+        <v>45078</v>
+      </c>
       <c r="B37" s="15">
         <v>784</v>
       </c>
       <c r="C37" s="27"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="21"/>
+      <c r="D37" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="21">
+        <v>408</v>
+      </c>
       <c r="F37" s="111"/>
       <c r="G37" s="21"/>
       <c r="H37" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>408</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -12437,16 +12488,16 @@
       <c r="D43" s="39"/>
       <c r="E43" s="40">
         <f>SUM(E4:E42)</f>
-        <v>264136</v>
+        <v>296680</v>
       </c>
       <c r="F43" s="113"/>
       <c r="G43" s="40">
         <f>SUM(G4:G42)</f>
-        <v>43553</v>
+        <v>46643</v>
       </c>
       <c r="H43" s="41">
         <f>SUM(H23:H42)</f>
-        <v>99301</v>
+        <v>128755</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -12490,7 +12541,7 @@
       <c r="D47" s="39"/>
       <c r="E47" s="187">
         <f>E43-G43</f>
-        <v>220583</v>
+        <v>250037</v>
       </c>
       <c r="F47" s="188"/>
       <c r="G47" s="189"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS     ZAVALETA   Mayo    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #05  M A Y O   2023/CREDITOS     ZAVALETA   Mayo    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,6 +541,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -999,7 +1007,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1445,6 +1453,14 @@
     </xf>
     <xf numFmtId="164" fontId="29" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3599,8 +3615,8 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3668,7 +3684,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="5" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3690,7 +3706,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="6" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3713,7 +3729,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="7" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3736,7 +3752,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="8" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3758,71 +3774,95 @@
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="9" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="82"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="84"/>
+      <c r="B9" s="204">
+        <v>45081</v>
+      </c>
+      <c r="C9" s="205">
+        <v>45086</v>
+      </c>
+      <c r="D9" s="206">
+        <v>48631</v>
+      </c>
       <c r="E9" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>342067</v>
       </c>
       <c r="G9" s="82"/>
       <c r="H9" s="90"/>
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="10" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="91"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="171"/>
+      <c r="B10" s="207">
+        <v>45082</v>
+      </c>
+      <c r="C10" s="170">
+        <v>45086</v>
+      </c>
+      <c r="D10" s="171">
+        <v>64403.5</v>
+      </c>
       <c r="E10" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>406470.5</v>
       </c>
       <c r="G10" s="82"/>
       <c r="H10" s="90"/>
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="11" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="91"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="171"/>
+      <c r="B11" s="207">
+        <v>45083</v>
+      </c>
+      <c r="C11" s="170">
+        <v>45086</v>
+      </c>
+      <c r="D11" s="171">
+        <v>54795</v>
+      </c>
       <c r="E11" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>461265.5</v>
       </c>
       <c r="G11" s="82"/>
       <c r="H11" s="90"/>
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="12" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="91"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="171"/>
+      <c r="B12" s="207">
+        <v>45084</v>
+      </c>
+      <c r="C12" s="170">
+        <v>45086</v>
+      </c>
+      <c r="D12" s="171">
+        <v>53630</v>
+      </c>
       <c r="E12" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="G12" s="82"/>
       <c r="H12" s="90"/>
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="13" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3831,14 +3871,14 @@
       <c r="D13" s="171"/>
       <c r="E13" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="G13" s="82"/>
       <c r="H13" s="90"/>
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="14" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3847,14 +3887,14 @@
       <c r="D14" s="171"/>
       <c r="E14" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="G14" s="82"/>
       <c r="H14" s="90"/>
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="15" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3863,14 +3903,14 @@
       <c r="D15" s="171"/>
       <c r="E15" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="G15" s="82"/>
       <c r="H15" s="90"/>
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="16" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3879,14 +3919,14 @@
       <c r="D16" s="171"/>
       <c r="E16" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="G16" s="82"/>
       <c r="H16" s="90"/>
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3895,14 +3935,14 @@
       <c r="D17" s="171"/>
       <c r="E17" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="G17" s="82"/>
       <c r="H17" s="87"/>
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3911,14 +3951,14 @@
       <c r="D18" s="173"/>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="G18" s="82"/>
       <c r="H18" s="87"/>
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3927,14 +3967,14 @@
       <c r="D19" s="173"/>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="G19" s="82"/>
       <c r="H19" s="87"/>
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3943,14 +3983,14 @@
       <c r="D20" s="173"/>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="G20" s="82"/>
       <c r="H20" s="87"/>
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3959,14 +3999,14 @@
       <c r="D21" s="173"/>
       <c r="E21" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="G21" s="82"/>
       <c r="H21" s="87"/>
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3975,14 +4015,14 @@
       <c r="D22" s="173"/>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="G22" s="82"/>
       <c r="H22" s="87"/>
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3991,14 +4031,14 @@
       <c r="D23" s="173"/>
       <c r="E23" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="G23" s="82"/>
       <c r="H23" s="87"/>
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4007,14 +4047,14 @@
       <c r="D24" s="173"/>
       <c r="E24" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="G24" s="82"/>
       <c r="H24" s="87"/>
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4023,14 +4063,14 @@
       <c r="D25" s="173"/>
       <c r="E25" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="G25" s="82"/>
       <c r="H25" s="87"/>
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4039,14 +4079,14 @@
       <c r="D26" s="173"/>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="G26" s="82"/>
       <c r="H26" s="87"/>
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4055,14 +4095,14 @@
       <c r="D27" s="21"/>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="G27" s="94"/>
       <c r="H27" s="95"/>
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4071,7 +4111,7 @@
       <c r="D28" s="21"/>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="F28" s="97"/>
       <c r="G28" s="180">
@@ -4085,7 +4125,7 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-1627522.81</v>
+        <v>-1406063.31</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -4094,14 +4134,14 @@
       <c r="D29" s="21"/>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="G29" s="99"/>
       <c r="H29" s="99"/>
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-1627522.81</v>
+        <v>-1406063.31</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -4110,7 +4150,7 @@
       <c r="D30" s="21"/>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="99"/>
@@ -4123,7 +4163,7 @@
       <c r="D31" s="102"/>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="99"/>
@@ -4136,7 +4176,7 @@
       <c r="D32" s="103"/>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4145,7 +4185,7 @@
       <c r="D33" s="103"/>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="H33" s="161"/>
       <c r="I33" s="161"/>
@@ -4156,7 +4196,7 @@
       <c r="D34" s="103"/>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="H34" s="161"/>
       <c r="I34" s="161"/>
@@ -4167,7 +4207,7 @@
       <c r="D35" s="84"/>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="H35" s="161"/>
       <c r="I35" s="161"/>
@@ -4178,7 +4218,7 @@
       <c r="D36" s="84"/>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="H36" s="161"/>
       <c r="I36" s="161"/>
@@ -4189,7 +4229,7 @@
       <c r="D37" s="84"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="H37" s="161"/>
       <c r="I37" s="161"/>
@@ -4200,7 +4240,7 @@
       <c r="D38" s="84"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="H38" s="161"/>
       <c r="I38" s="161"/>
@@ -4211,7 +4251,7 @@
       <c r="D39" s="84"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="H39" s="161"/>
       <c r="I39" s="161"/>
@@ -4222,7 +4262,7 @@
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4231,7 +4271,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4240,7 +4280,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -4249,7 +4289,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="125"/>
@@ -4260,7 +4300,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="I44" s="126"/>
       <c r="J44" s="125"/>
@@ -4271,7 +4311,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="I45" s="126"/>
       <c r="J45" s="125"/>
@@ -4282,7 +4322,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="F46"/>
       <c r="I46" s="126"/>
@@ -4294,7 +4334,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>293436</v>
+        <v>514895.5</v>
       </c>
       <c r="F47"/>
       <c r="I47" s="126"/>
@@ -4397,7 +4437,8 @@
     <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11579,9 +11620,9 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12412,9 +12453,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="166"/>
-      <c r="B38" s="15">
-        <v>785</v>
-      </c>
+      <c r="B38" s="15"/>
       <c r="C38" s="27"/>
       <c r="D38" s="17"/>
       <c r="E38" s="21"/>
@@ -12427,9 +12466,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="166"/>
-      <c r="B39" s="15">
-        <v>786</v>
-      </c>
+      <c r="B39" s="15"/>
       <c r="C39" s="27"/>
       <c r="D39" s="17"/>
       <c r="E39" s="21"/>
